--- a/DemocracyIndex2022.xlsx
+++ b/DemocracyIndex2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Macintosh HD - Datos/12 PUCP-Docencia/2023/POL278/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0867e43d8660c8df/Escritorio/Trabajo/Pregrado 2023-2/Estadística 1 - PD/PracticasPOL278/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1F30719-1624-9942-8214-27E8664A33FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{F1F30719-1624-9942-8214-27E8664A33FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{952CB2F1-7D6F-4354-A681-CC11920C3B1D}"/>
   <bookViews>
-    <workbookView xWindow="6480" yWindow="500" windowWidth="27640" windowHeight="15940" xr2:uid="{28F7081A-5950-5642-AB0C-8323C646FBE4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{28F7081A-5950-5642-AB0C-8323C646FBE4}"/>
   </bookViews>
   <sheets>
     <sheet name="Data 2022" sheetId="2" r:id="rId1"/>
@@ -1747,9 +1747,6 @@
     <t xml:space="preserve">Sub-Saharan Africa </t>
   </si>
   <si>
-    <t>Overallscore</t>
-  </si>
-  <si>
     <t>Change_rank_previous_year</t>
   </si>
   <si>
@@ -1766,6 +1763,9 @@
   </si>
   <si>
     <t>Civil_liberties</t>
+  </si>
+  <si>
+    <t>Puntaje</t>
   </si>
 </sst>
 </file>
@@ -1973,9 +1973,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2013,7 +2013,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2119,7 +2119,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2261,7 +2261,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2272,47 +2272,47 @@
   <dimension ref="A1:M168"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="19"/>
-    <col min="2" max="2" width="10.83203125" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="26" customWidth="1"/>
-    <col min="4" max="9" width="10.83203125" customWidth="1"/>
-    <col min="10" max="10" width="22.33203125" customWidth="1"/>
+    <col min="1" max="1" width="10.796875" style="19"/>
+    <col min="2" max="2" width="10.796875" customWidth="1"/>
+    <col min="3" max="3" width="10.796875" style="26" customWidth="1"/>
+    <col min="4" max="9" width="10.796875" customWidth="1"/>
+    <col min="10" max="10" width="22.296875" customWidth="1"/>
     <col min="12" max="12" width="34.5" customWidth="1"/>
-    <col min="13" max="13" width="47.6640625" customWidth="1"/>
+    <col min="13" max="13" width="47.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="24">
+    <row r="1" spans="1:13" ht="20.399999999999999">
       <c r="A1" s="17" t="s">
         <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="C1" s="22" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>186</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>29</v>
@@ -2882,7 +2882,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="24">
+    <row r="18" spans="1:13" ht="20.399999999999999">
       <c r="A18" s="18" t="s">
         <v>104</v>
       </c>
@@ -3232,7 +3232,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="24">
+    <row r="28" spans="1:13" ht="20.399999999999999">
       <c r="A28" s="18" t="s">
         <v>171</v>
       </c>
@@ -3443,7 +3443,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="24">
+    <row r="34" spans="1:13" ht="20.399999999999999">
       <c r="A34" s="18" t="s">
         <v>143</v>
       </c>
@@ -3689,7 +3689,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="36">
+    <row r="41" spans="1:13" ht="30.6">
       <c r="A41" s="18" t="s">
         <v>169</v>
       </c>
@@ -3794,7 +3794,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="24">
+    <row r="44" spans="1:13" ht="20.399999999999999">
       <c r="A44" s="18" t="s">
         <v>72</v>
       </c>
@@ -6490,7 +6490,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="121" spans="1:11" ht="24">
+    <row r="121" spans="1:11" ht="20.399999999999999">
       <c r="A121" s="18" t="s">
         <v>81</v>
       </c>
@@ -7614,7 +7614,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="153" spans="1:11" ht="24">
+    <row r="153" spans="1:11" ht="20.399999999999999">
       <c r="A153" s="18" t="s">
         <v>48</v>
       </c>
@@ -7824,7 +7824,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="159" spans="1:11" ht="24">
+    <row r="159" spans="1:11" ht="20.399999999999999">
       <c r="A159" s="18" t="s">
         <v>140</v>
       </c>
@@ -7894,7 +7894,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="161" spans="1:11" ht="24">
+    <row r="161" spans="1:11" ht="20.399999999999999">
       <c r="A161" s="18" t="s">
         <v>37</v>
       </c>
